--- a/project_article/comparison.xlsx
+++ b/project_article/comparison.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17340" windowHeight="9525" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17340" windowHeight="9525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Cut</t>
   </si>
@@ -329,8 +330,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="243397200"/>
-        <c:axId val="463272208"/>
+        <c:axId val="279895880"/>
+        <c:axId val="279845128"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -479,11 +480,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="243394848"/>
-        <c:axId val="244954048"/>
+        <c:axId val="279845912"/>
+        <c:axId val="279845520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="243397200"/>
+        <c:axId val="279895880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -540,7 +541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463272208"/>
+        <c:crossAx val="279845128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -548,7 +549,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="463272208"/>
+        <c:axId val="279845128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -599,12 +600,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243397200"/>
+        <c:crossAx val="279895880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="244954048"/>
+        <c:axId val="279845520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,12 +642,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243394848"/>
+        <c:crossAx val="279845912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="243394848"/>
+        <c:axId val="279845912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -656,7 +657,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244954048"/>
+        <c:crossAx val="279845520"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -897,11 +899,11 @@
         </c:dLbls>
         <c:gapWidth val="267"/>
         <c:overlap val="-43"/>
-        <c:axId val="479033232"/>
-        <c:axId val="479030880"/>
+        <c:axId val="279841992"/>
+        <c:axId val="280807752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="479033232"/>
+        <c:axId val="279841992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -958,7 +960,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479030880"/>
+        <c:crossAx val="280807752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -966,7 +968,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="479030880"/>
+        <c:axId val="280807752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,7 +1019,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479033232"/>
+        <c:crossAx val="279841992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2590,7 +2592,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,8 +2649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2700,4 +2702,62 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/project_article/comparison.xlsx
+++ b/project_article/comparison.xlsx
@@ -9,13 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17340" windowHeight="9525" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17340" windowHeight="9525" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="test_clean" localSheetId="3">Sheet4!$A$2:$C$54</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,8 +29,23 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="test_clean" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\github\graph-clustering-algorithms\test_clean.txt" space="1" consecutive="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Cut</t>
   </si>
@@ -56,6 +75,21 @@
   </si>
   <si>
     <t>Geometric</t>
+  </si>
+  <si>
+    <t># clusters</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Parallelization Factor</t>
+  </si>
+  <si>
+    <t>Runtime, ms</t>
   </si>
 </sst>
 </file>
@@ -330,8 +364,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="279895880"/>
-        <c:axId val="279845128"/>
+        <c:axId val="277159008"/>
+        <c:axId val="277162928"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -480,11 +514,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="279845912"/>
-        <c:axId val="279845520"/>
+        <c:axId val="279714904"/>
+        <c:axId val="277159792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="279895880"/>
+        <c:axId val="277159008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -541,7 +575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279845128"/>
+        <c:crossAx val="277162928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -549,7 +583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="279845128"/>
+        <c:axId val="277162928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -600,12 +634,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279895880"/>
+        <c:crossAx val="277159008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279845520"/>
+        <c:axId val="277159792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,12 +676,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279845912"/>
+        <c:crossAx val="279714904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="279845912"/>
+        <c:axId val="279714904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -657,7 +691,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279845520"/>
+        <c:crossAx val="277159792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -766,6 +800,608 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Cut</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Entropy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jaccard</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Maryland Bridge</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dice</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Simpson</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Geometric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.48582999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47337000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53162257678806901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50442406514009297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.521622576788069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50187548375229096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51045503999618302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="276660464"/>
+        <c:axId val="276656936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="276660464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="276656936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="276656936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="276660464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># clusters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Cut</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Entropy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jaccard</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Maryland Bridge</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dice</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Simpson</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Geometric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="124137688"/>
+        <c:axId val="124141608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="124137688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="124141608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="124141608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="124137688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -786,7 +1422,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Distance Measures Accuracy</a:t>
+              <a:t>Parallelization Factor: # of Clusters and Accuracy</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -824,70 +1460,372 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># clusters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
-                  <c:v>Jaccard</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Maryland Bridge</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Dice</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Simpson</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Geometric</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$6</c:f>
+              <c:f>Sheet4!$B$2:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
-                  <c:v>0.53162257678806901</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50442406514009297</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.521622576788069</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.50187548375229096</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51045503999618302</c:v>
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -897,13 +1835,225 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="267"/>
-        <c:overlap val="-43"/>
-        <c:axId val="279841992"/>
-        <c:axId val="280807752"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="463954696"/>
+        <c:axId val="463955480"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>0.47337871438587897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4746342843163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47416222528566299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47543337037652</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47628055992091001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.477869456386594</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47415990599594898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.477873646090334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47677181559800502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47296961696317602</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47857240143593099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.478983510571514</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47845953709023897</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48909537741218501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.489504093415351</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.48721996194397299</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.504081899354892</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.497991006706752</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.518590143979069</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.50947510712607003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.49531995553720498</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.516119622720701</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.508032171518776</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.51501229740322296</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.50373399111277495</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.50999712775052997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.51758780256912695</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.50853393699803096</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.48744315444521802</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.47598031651547701</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.50414367319716702</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.539730901184308</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.53353706309049098</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.52953517634045</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.51732412348120105</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.51116576833808902</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.52307143003788903</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.53050942134449797</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.51985823686686305</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.49392898796923501</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.52567498781200195</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.53165559876118695</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.55347471556236305</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.51956455573955196</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.54664667602466599</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.52492299947671694</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.51151957800342995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.53270017195449604</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.55555844338294103</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.54215468363853503</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.559168609168609</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.559168609168609</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.559168609168609</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="462290448"/>
+        <c:axId val="462290056"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="279841992"/>
+        <c:axId val="463954696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -924,7 +2074,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -960,7 +2110,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280807752"/>
+        <c:crossAx val="463955480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -968,7 +2118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280807752"/>
+        <c:axId val="463955480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,10 +2169,68 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279841992"/>
+        <c:crossAx val="463954696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="462290056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462290448"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="462290448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="462290056"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:pattFill prst="ltDnDiag">
           <a:fgClr>
@@ -1041,6 +2249,978 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="7F7F7F"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Parallelization Factor: # of Clusters and Runtime</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># clusters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="744949552"/>
+        <c:axId val="744949160"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Runtime, ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$D$2:$D$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>2108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1186</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1769</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>812</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>812</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>833</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1296</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>889</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1163</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="607542272"/>
+        <c:axId val="607541880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="744949552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744949160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="744949160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744949552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="607541880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607542272"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="607542272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="607541880"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1158,6 +3338,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="221">
   <cs:axisTitle>
@@ -1708,7 +4008,1562 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="221">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="221">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2295,15 +6150,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1147762</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>280987</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2324,6 +6214,216 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1387816" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400550" y="4400550"/>
+          <a:ext cx="1387816" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Parallelization Factor</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1387816" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438650" y="9048750"/>
+          <a:ext cx="1387816" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Parallelization Factor</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.05784</cdr:x>
+      <cdr:y>0.81503</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.20396</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="361951" y="4629150"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="test_clean" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2592,7 +6692,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,10 +6747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2658,43 +6758,67 @@
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.53162257678806901</v>
+        <v>0.48582999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0.50442406514009297</v>
+        <v>0.47337000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.521622576788069</v>
+        <v>0.53162257678806901</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.50187548375229096</v>
+        <v>0.50442406514009297</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.521622576788069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.50187548375229096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>0.51045503999618302</v>
       </c>
     </row>
@@ -2706,10 +6830,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2717,47 +6841,850 @@
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>235</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>287</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4">
+        <v>83</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
+      <c r="B5">
+        <v>70</v>
+      </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
+      <c r="B6">
+        <v>82</v>
+      </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="B7">
+        <v>61</v>
+      </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
+      </c>
+      <c r="B8">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>287</v>
+      </c>
+      <c r="C2">
+        <v>0.47337871438587897</v>
+      </c>
+      <c r="D2">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>286</v>
+      </c>
+      <c r="C3">
+        <v>0.4746342843163</v>
+      </c>
+      <c r="D3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>284</v>
+      </c>
+      <c r="C4">
+        <v>0.47416222528566299</v>
+      </c>
+      <c r="D4">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>280</v>
+      </c>
+      <c r="C5">
+        <v>0.47543337037652</v>
+      </c>
+      <c r="D5">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>276</v>
+      </c>
+      <c r="C6">
+        <v>0.47628055992091001</v>
+      </c>
+      <c r="D6">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>278</v>
+      </c>
+      <c r="C7">
+        <v>0.477869456386594</v>
+      </c>
+      <c r="D7">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>282</v>
+      </c>
+      <c r="C8">
+        <v>0.47415990599594898</v>
+      </c>
+      <c r="D8">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>273</v>
+      </c>
+      <c r="C9">
+        <v>0.477873646090334</v>
+      </c>
+      <c r="D9">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>271</v>
+      </c>
+      <c r="C10">
+        <v>0.47677181559800502</v>
+      </c>
+      <c r="D10">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>275</v>
+      </c>
+      <c r="C11">
+        <v>0.47296961696317602</v>
+      </c>
+      <c r="D11">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>272</v>
+      </c>
+      <c r="C12">
+        <v>0.47857240143593099</v>
+      </c>
+      <c r="D12">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>267</v>
+      </c>
+      <c r="C13">
+        <v>0.478983510571514</v>
+      </c>
+      <c r="D13">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>270</v>
+      </c>
+      <c r="C14">
+        <v>0.47845953709023897</v>
+      </c>
+      <c r="D14">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>258</v>
+      </c>
+      <c r="C15">
+        <v>0.48909537741218501</v>
+      </c>
+      <c r="D15">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>259</v>
+      </c>
+      <c r="C16">
+        <v>0.489504093415351</v>
+      </c>
+      <c r="D16">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>240</v>
+      </c>
+      <c r="C17">
+        <v>0.48721996194397299</v>
+      </c>
+      <c r="D17">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>70</v>
+      </c>
+      <c r="B18">
+        <v>223</v>
+      </c>
+      <c r="C18">
+        <v>0.504081899354892</v>
+      </c>
+      <c r="D18">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>218</v>
+      </c>
+      <c r="C19">
+        <v>0.497991006706752</v>
+      </c>
+      <c r="D19">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>130</v>
+      </c>
+      <c r="B20">
+        <v>200</v>
+      </c>
+      <c r="C20">
+        <v>0.518590143979069</v>
+      </c>
+      <c r="D20">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>150</v>
+      </c>
+      <c r="B21">
+        <v>192</v>
+      </c>
+      <c r="C21">
+        <v>0.50947510712607003</v>
+      </c>
+      <c r="D21">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>180</v>
+      </c>
+      <c r="B22">
+        <v>187</v>
+      </c>
+      <c r="C22">
+        <v>0.49531995553720498</v>
+      </c>
+      <c r="D22">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>200</v>
+      </c>
+      <c r="B23">
+        <v>170</v>
+      </c>
+      <c r="C23">
+        <v>0.516119622720701</v>
+      </c>
+      <c r="D23">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>250</v>
+      </c>
+      <c r="B24">
+        <v>161</v>
+      </c>
+      <c r="C24">
+        <v>0.508032171518776</v>
+      </c>
+      <c r="D24">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>300</v>
+      </c>
+      <c r="B25">
+        <v>163</v>
+      </c>
+      <c r="C25">
+        <v>0.51501229740322296</v>
+      </c>
+      <c r="D25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>350</v>
+      </c>
+      <c r="B26">
+        <v>151</v>
+      </c>
+      <c r="C26">
+        <v>0.50373399111277495</v>
+      </c>
+      <c r="D26">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>400</v>
+      </c>
+      <c r="B27">
+        <v>135</v>
+      </c>
+      <c r="C27">
+        <v>0.50999712775052997</v>
+      </c>
+      <c r="D27">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>450</v>
+      </c>
+      <c r="B28">
+        <v>140</v>
+      </c>
+      <c r="C28">
+        <v>0.51758780256912695</v>
+      </c>
+      <c r="D28">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>500</v>
+      </c>
+      <c r="B29">
+        <v>123</v>
+      </c>
+      <c r="C29">
+        <v>0.50853393699803096</v>
+      </c>
+      <c r="D29">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>550</v>
+      </c>
+      <c r="B30">
+        <v>126</v>
+      </c>
+      <c r="C30">
+        <v>0.48744315444521802</v>
+      </c>
+      <c r="D30">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>600</v>
+      </c>
+      <c r="B31">
+        <v>111</v>
+      </c>
+      <c r="C31">
+        <v>0.47598031651547701</v>
+      </c>
+      <c r="D31">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>650</v>
+      </c>
+      <c r="B32">
+        <v>101</v>
+      </c>
+      <c r="C32">
+        <v>0.50414367319716702</v>
+      </c>
+      <c r="D32">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>700</v>
+      </c>
+      <c r="B33">
+        <v>91</v>
+      </c>
+      <c r="C33">
+        <v>0.539730901184308</v>
+      </c>
+      <c r="D33">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>750</v>
+      </c>
+      <c r="B34">
+        <v>99</v>
+      </c>
+      <c r="C34">
+        <v>0.53353706309049098</v>
+      </c>
+      <c r="D34">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>800</v>
+      </c>
+      <c r="B35">
+        <v>87</v>
+      </c>
+      <c r="C35">
+        <v>0.52953517634045</v>
+      </c>
+      <c r="D35">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>850</v>
+      </c>
+      <c r="B36">
+        <v>91</v>
+      </c>
+      <c r="C36">
+        <v>0.51732412348120105</v>
+      </c>
+      <c r="D36">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>900</v>
+      </c>
+      <c r="B37">
+        <v>96</v>
+      </c>
+      <c r="C37">
+        <v>0.51116576833808902</v>
+      </c>
+      <c r="D37">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>950</v>
+      </c>
+      <c r="B38">
+        <v>94</v>
+      </c>
+      <c r="C38">
+        <v>0.52307143003788903</v>
+      </c>
+      <c r="D38">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1000</v>
+      </c>
+      <c r="B39">
+        <v>95</v>
+      </c>
+      <c r="C39">
+        <v>0.53050942134449797</v>
+      </c>
+      <c r="D39">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1100</v>
+      </c>
+      <c r="B40">
+        <v>86</v>
+      </c>
+      <c r="C40">
+        <v>0.51985823686686305</v>
+      </c>
+      <c r="D40">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1200</v>
+      </c>
+      <c r="B41">
+        <v>74</v>
+      </c>
+      <c r="C41">
+        <v>0.49392898796923501</v>
+      </c>
+      <c r="D41">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1300</v>
+      </c>
+      <c r="B42">
+        <v>67</v>
+      </c>
+      <c r="C42">
+        <v>0.52567498781200195</v>
+      </c>
+      <c r="D42">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1400</v>
+      </c>
+      <c r="B43">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>0.53165559876118695</v>
+      </c>
+      <c r="D43">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1500</v>
+      </c>
+      <c r="B44">
+        <v>58</v>
+      </c>
+      <c r="C44">
+        <v>0.55347471556236305</v>
+      </c>
+      <c r="D44">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1600</v>
+      </c>
+      <c r="B45">
+        <v>63</v>
+      </c>
+      <c r="C45">
+        <v>0.51956455573955196</v>
+      </c>
+      <c r="D45">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1700</v>
+      </c>
+      <c r="B46">
+        <v>55</v>
+      </c>
+      <c r="C46">
+        <v>0.54664667602466599</v>
+      </c>
+      <c r="D46">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1800</v>
+      </c>
+      <c r="B47">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>0.52492299947671694</v>
+      </c>
+      <c r="D47">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1900</v>
+      </c>
+      <c r="B48">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>0.51151957800342995</v>
+      </c>
+      <c r="D48">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2000</v>
+      </c>
+      <c r="B49">
+        <v>52</v>
+      </c>
+      <c r="C49">
+        <v>0.53270017195449604</v>
+      </c>
+      <c r="D49">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2200</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>0.55555844338294103</v>
+      </c>
+      <c r="D50">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2400</v>
+      </c>
+      <c r="B51">
+        <v>48</v>
+      </c>
+      <c r="C51">
+        <v>0.54215468363853503</v>
+      </c>
+      <c r="D51">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2600</v>
+      </c>
+      <c r="B52">
+        <v>25</v>
+      </c>
+      <c r="C52">
+        <v>0.559168609168609</v>
+      </c>
+      <c r="D52">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2800</v>
+      </c>
+      <c r="B53">
+        <v>25</v>
+      </c>
+      <c r="C53">
+        <v>0.559168609168609</v>
+      </c>
+      <c r="D53">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3000</v>
+      </c>
+      <c r="B54">
+        <v>25</v>
+      </c>
+      <c r="C54">
+        <v>0.559168609168609</v>
+      </c>
+      <c r="D54">
+        <v>903</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/project_article/comparison.xlsx
+++ b/project_article/comparison.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17340" windowHeight="9525" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17340" windowHeight="9525" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="test_clean" localSheetId="3">Sheet4!$A$2:$C$54</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
   <si>
     <t>Cut</t>
   </si>
@@ -184,7 +185,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -298,7 +298,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -364,8 +363,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="277159008"/>
-        <c:axId val="277162928"/>
+        <c:axId val="193472232"/>
+        <c:axId val="193470664"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -448,7 +447,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -514,11 +512,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="279714904"/>
-        <c:axId val="277159792"/>
+        <c:axId val="193466352"/>
+        <c:axId val="193471448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="277159008"/>
+        <c:axId val="193472232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -575,7 +573,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277162928"/>
+        <c:crossAx val="193470664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -583,7 +581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="277162928"/>
+        <c:axId val="193470664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -634,12 +632,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277159008"/>
+        <c:crossAx val="193472232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="277159792"/>
+        <c:axId val="193471448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -676,12 +674,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279714904"/>
+        <c:crossAx val="193466352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="279714904"/>
+        <c:axId val="193466352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,7 +689,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="277159792"/>
+        <c:crossAx val="193471448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -718,7 +716,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -931,11 +928,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="276660464"/>
-        <c:axId val="276656936"/>
+        <c:axId val="193465568"/>
+        <c:axId val="193467528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="276660464"/>
+        <c:axId val="193465568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,7 +975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276656936"/>
+        <c:crossAx val="193467528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -986,7 +983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="276656936"/>
+        <c:axId val="193467528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,7 +1034,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276660464"/>
+        <c:crossAx val="193465568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1232,11 +1229,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="124137688"/>
-        <c:axId val="124141608"/>
+        <c:axId val="154728272"/>
+        <c:axId val="377951992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="124137688"/>
+        <c:axId val="154728272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124141608"/>
+        <c:crossAx val="377951992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1287,7 +1284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124141608"/>
+        <c:axId val="377951992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1338,7 +1335,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124137688"/>
+        <c:crossAx val="154728272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1837,8 +1834,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="463954696"/>
-        <c:axId val="463955480"/>
+        <c:axId val="377953168"/>
+        <c:axId val="377953560"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2049,11 +2046,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="462290448"/>
-        <c:axId val="462290056"/>
+        <c:axId val="377954344"/>
+        <c:axId val="377953952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="463954696"/>
+        <c:axId val="377953168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2110,7 +2107,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463955480"/>
+        <c:crossAx val="377953560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2118,7 +2115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="463955480"/>
+        <c:axId val="377953560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2169,12 +2166,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463954696"/>
+        <c:crossAx val="377953168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="462290056"/>
+        <c:axId val="377953952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2211,12 +2208,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462290448"/>
+        <c:crossAx val="377954344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="462290448"/>
+        <c:axId val="377954344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2225,7 +2222,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="462290056"/>
+        <c:crossAx val="377953952"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2777,8 +2775,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="744949552"/>
-        <c:axId val="744949160"/>
+        <c:axId val="377955128"/>
+        <c:axId val="377955520"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2989,11 +2987,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="607542272"/>
-        <c:axId val="607541880"/>
+        <c:axId val="377956304"/>
+        <c:axId val="377955912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="744949552"/>
+        <c:axId val="377955128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3050,7 +3048,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="744949160"/>
+        <c:crossAx val="377955520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3058,7 +3056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="744949160"/>
+        <c:axId val="377955520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3109,12 +3107,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="744949552"/>
+        <c:crossAx val="377955128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="607541880"/>
+        <c:axId val="377955912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3151,12 +3149,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607542272"/>
+        <c:crossAx val="377956304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="607542272"/>
+        <c:axId val="377956304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3165,7 +3163,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="607541880"/>
+        <c:crossAx val="377955912"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3232,6 +3231,542 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Accuracy vs # Clusters</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># clusters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Cut</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Entropy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jaccard</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Maryland Bridge</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dice</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Simpson</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Geometric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="430342600"/>
+        <c:axId val="430344168"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Cut</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Entropy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jaccard</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Maryland Bridge</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dice</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Simpson</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Geometric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.48582999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47337000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53162257678806901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50442406514009297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.521622576788069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50187548375229096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51045503999618302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="383036280"/>
+        <c:axId val="383033144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="430342600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430344168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="430344168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430342600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="383033144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383036280"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="383036280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="383033144"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -3458,6 +3993,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="221">
   <cs:axisTitle>
@@ -6106,6 +6681,509 @@
           <a:schemeClr val="lt1"/>
         </a:bgClr>
       </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
@@ -6422,6 +7500,41 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="test_clean" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
@@ -6750,7 +7863,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B1" sqref="B1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6833,7 +7946,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B8" sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6915,7 +8028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
@@ -7687,4 +8800,108 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>235</v>
+      </c>
+      <c r="C2">
+        <v>0.48582999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>287</v>
+      </c>
+      <c r="C3">
+        <v>0.47337000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>83</v>
+      </c>
+      <c r="C4">
+        <v>0.53162257678806901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <v>0.50442406514009297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>82</v>
+      </c>
+      <c r="C6">
+        <v>0.521622576788069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>0.50187548375229096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>95</v>
+      </c>
+      <c r="C8">
+        <v>0.51045503999618302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>